--- a/files/split_test_1_page_split.xlsx
+++ b/files/split_test_1_page_split.xlsx
@@ -509,7 +509,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -533,7 +533,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -565,7 +565,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -589,7 +589,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -621,7 +621,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -645,7 +645,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -677,7 +677,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -701,7 +701,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -765,7 +765,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -797,7 +797,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -821,7 +821,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the center right position of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -922,7 +922,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -946,7 +946,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -978,7 +978,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1002,7 +1002,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1034,7 +1034,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1058,7 +1058,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1090,7 +1090,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1114,7 +1114,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1178,7 +1178,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1210,7 +1210,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1234,7 +1234,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the bottom right position of the page"</t>
+          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">

--- a/files/split_test_1_page_split.xlsx
+++ b/files/split_test_1_page_split.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Page_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Page_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Page_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Page_2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,7 +467,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>table_header_descriptor</t>
+          <t>table_header_position</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -494,12 +494,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12W/14W/16W/18W</t>
+          <t>12W/14W/
+16W/18W</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
+          <t>1200lm/1400lm/
+1600lm/1800lm</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -509,7 +511,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -533,7 +535,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -565,7 +567,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -589,7 +591,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -610,18 +612,20 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12W/14W/16W/18W</t>
+          <t>12W/14W/
+16W/18W</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
+          <t>1200lm/1400lm/
+1600lm/1800lm</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -645,7 +649,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -677,7 +681,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -701,7 +705,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -726,12 +730,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12W/14W/16W/18W</t>
+          <t>12W/14W/
+16W/18W</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
+          <t>1200lm/1400lm/
+1600lm/1800lm</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -741,7 +747,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -765,7 +771,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -797,7 +803,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -821,7 +827,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the center right position of the page"</t>
+          <t>"Duxford Range Specifications - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -880,7 +886,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>table_header_descriptor</t>
+          <t>table_header_position</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -907,12 +913,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12W/14W/16W/18W</t>
+          <t>12W/14W/
+16W/18W</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
+          <t>1200lm/1400lm/
+1600lm/1800lm</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -922,7 +930,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -946,7 +954,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -978,7 +986,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1002,7 +1010,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1023,18 +1031,20 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12W/14W/16W/18W</t>
+          <t>12W/14W/
+16W/18W</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
+          <t>1200lm/1400lm/
+1600lm/1800lm</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1058,7 +1068,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1090,7 +1100,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1114,7 +1124,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1139,12 +1149,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12W/14W/16W/18W</t>
+          <t>12W/14W/
+16W/18W</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1200lm/1400lm/1600lm/1800lm</t>
+          <t>1200lm/1400lm/
+1600lm/1800lm</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1154,7 +1166,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1173,12 +1185,20 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16W</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1600lm</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1210,7 +1230,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1234,7 +1254,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Multi-Wattage Tri-Colour and Single Colour 4000K Retrofit Gear Trays - Can be found on the middle right position of the page"</t>
+          <t>"Part Number - Top right of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">
